--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 10.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 10.xlsx
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -933,7 +933,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1140,7 +1140,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1163,7 +1163,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1784,7 +1784,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2359,7 +2359,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2382,7 +2382,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2612,7 +2612,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2704,7 +2704,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2773,7 +2773,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2796,7 +2796,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2915,7 +2915,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2965,7 +2965,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3011,7 +3011,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3379,7 +3379,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3425,7 +3425,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3494,7 +3494,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3517,7 +3517,7 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3655,7 +3655,7 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3678,7 +3678,7 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4414,7 +4414,7 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4644,7 +4644,7 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -4667,7 +4667,7 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -4690,7 +4690,7 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -4713,7 +4713,7 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5357,7 +5357,7 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5495,7 +5495,7 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -5748,7 +5748,7 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -5771,7 +5771,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
